--- a/doc/20190612测试说明.xlsx
+++ b/doc/20190612测试说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>2019-6-12测试情况说明</t>
   </si>
@@ -67,6 +67,9 @@
     <t>{"timestamp":"2019-06-12T07:42:34.413+0000","status":500,"error":"Internal Server Error","message":"No message available","path":"/api/changepwd"}</t>
   </si>
   <si>
+    <t>已修改</t>
+  </si>
+  <si>
     <t>修改密码</t>
   </si>
   <si>
@@ -74,6 +77,10 @@
   </si>
   <si>
     <t>"text":"用户信息获取失败，请检查请求头"</t>
+  </si>
+  <si>
+    <t>原因是模拟的Authorization跟实际不符，项目部署的是165
+但是登陆是连的165，但是java接口数据库实际连的是173，</t>
   </si>
   <si>
     <t>搜索收藏无内容</t>
@@ -208,6 +215,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="7"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -223,14 +237,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,53 +258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,7 +273,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,29 +318,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,85 +393,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,91 +555,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,26 +590,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,30 +644,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -686,157 +663,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -858,13 +859,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1188,8 +1195,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1275,72 +1282,80 @@
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" ht="57" spans="1:6">
       <c r="A7" s="6"/>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="9" t="s">
-        <v>28</v>
+      <c r="A10" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="9" t="s">
-        <v>29</v>
+      <c r="A11" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
